--- a/data/trans_bre/P15A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P15A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,92%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 2,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 2,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 3,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 4,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,08; 136,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,87; 117,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; 149,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,77; 255,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,86%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; -1,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 0,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; -0,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 0,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,39; -30,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,68; 9,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,41; -3,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,49; 31,72</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 2,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 1,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,07; 66,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,25; 194,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,68; 170,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,69; 155,28</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; -0,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 0,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,63; -4,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,27; 29,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,02; 34,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,79; 63,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>103,92%</t>
+          <t>107,03%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,26</t>
+          <t>1,06; 4,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,77; 255,94</t>
+          <t>28,0; 257,59</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>-13,19%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,56</t>
+          <t>-1,29; 0,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 31,72</t>
+          <t>-47,78; 44,46</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>0,53%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,28</t>
+          <t>-1,93; 1,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 155,28</t>
+          <t>-64,02; 140,86</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>19,69%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,16</t>
+          <t>-0,39; 1,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 63,85</t>
+          <t>-15,76; 72,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,39</t>
+          <t>-0,35; 2,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,13</t>
+          <t>-0,6; 2,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,22</t>
+          <t>-0,29; 3,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,31</t>
+          <t>1,04; 4,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 136,71</t>
+          <t>-12,47; 137,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 117,25</t>
+          <t>-19,07; 137,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 149,03</t>
+          <t>-8,01; 155,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,0; 257,59</t>
+          <t>27,49; 245,73</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -1,24</t>
+          <t>-3,72; -1,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,21</t>
+          <t>-1,97; 0,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; -0,09</t>
+          <t>-1,97; -0,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,7</t>
+          <t>-1,34; 0,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,39; -30,38</t>
+          <t>-68,35; -27,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 9,14</t>
+          <t>-54,16; 10,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,41; -3,59</t>
+          <t>-63,43; -1,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 44,46</t>
+          <t>-50,05; 41,42</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,44</t>
+          <t>-2,88; 1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,08</t>
+          <t>-1,8; 3,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,09</t>
+          <t>-1,87; 2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,17</t>
+          <t>-1,79; 1,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,07; 66,74</t>
+          <t>-62,27; 81,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 194,43</t>
+          <t>-53,63; 180,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 170,44</t>
+          <t>-54,63; 154,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,02; 140,86</t>
+          <t>-64,06; 145,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; -0,18</t>
+          <t>-1,88; -0,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,71</t>
+          <t>-0,97; 0,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,72</t>
+          <t>-0,92; 0,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,2</t>
+          <t>-0,33; 1,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -4,37</t>
+          <t>-44,11; -4,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 29,08</t>
+          <t>-29,71; 28,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 34,52</t>
+          <t>-30,44; 30,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 72,59</t>
+          <t>-12,85; 81,75</t>
         </is>
       </c>
     </row>
